--- a/PadelGeo.xlsx
+++ b/PadelGeo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PABLO BASCOY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7356B925-4677-4F00-9F74-F4A9E335C803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0794B950-A299-4CA4-AEE1-047A5903CDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F90CDE7B-79EA-48C7-9CD5-E82619C10216}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="318">
   <si>
     <t>Nombre de la Cancha</t>
   </si>
@@ -281,9 +281,6 @@
     <t>Guillermo White 4400</t>
   </si>
   <si>
-    <t>Munro (Vicente López)</t>
-  </si>
-  <si>
     <t>@padelparkok:https://www.instagram.com/padelparkok/</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>Zufriategui 1251</t>
   </si>
   <si>
-    <t>Vicente López (GBA)</t>
-  </si>
-  <si>
     <t>+54 9 11 5007-5459:tel:+5491150075459</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>Gaetan Gutierrez 857</t>
   </si>
   <si>
-    <t>San Isidro (GBA)</t>
-  </si>
-  <si>
     <t>+54 11 3052-1987:tel:+541130521987</t>
   </si>
   <si>
@@ -350,9 +341,6 @@
     <t>Caracas 1723</t>
   </si>
   <si>
-    <t>Martínez (GBA)</t>
-  </si>
-  <si>
     <t>+54 9 11 3325-5073:tel:+5491133255073</t>
   </si>
   <si>
@@ -620,9 +608,6 @@
     <t>La Chimenea Padel &amp; Pickleball</t>
   </si>
   <si>
-    <t>Avellaneda (GBA)</t>
-  </si>
-  <si>
     <t>+54 9 11 2857-2240:tel:+5491128572240</t>
   </si>
   <si>
@@ -635,9 +620,6 @@
     <t>Las Heras 1512</t>
   </si>
   <si>
-    <t>Lomas de Zamora (GBA)</t>
-  </si>
-  <si>
     <t>@padellomaslasheras:https://www.instagram.com/padellomaslasheras/</t>
   </si>
   <si>
@@ -650,9 +632,6 @@
     <t>Presidente Perón 568 esq. Quintana</t>
   </si>
   <si>
-    <t>Quilmes (GBA)</t>
-  </si>
-  <si>
     <t>+54 9 11 3833-7242</t>
   </si>
   <si>
@@ -665,9 +644,6 @@
     <t>Av. Juan Zorrilla de San Martín 855</t>
   </si>
   <si>
-    <t>Florencio Varela (GBA)</t>
-  </si>
-  <si>
     <t>+54 9 11 3588-7746</t>
   </si>
   <si>
@@ -680,9 +656,6 @@
     <t>Puente del Inca 2450 (Polo Industrial de Ezeiza)</t>
   </si>
   <si>
-    <t>Ezeiza (GBA)</t>
-  </si>
-  <si>
     <t>+54 9 11 7604-1011</t>
   </si>
   <si>
@@ -695,9 +668,6 @@
     <t>Reina Elena 2277</t>
   </si>
   <si>
-    <t>Glew, Almirante Brown (GBA)</t>
-  </si>
-  <si>
     <t>+54 9 11 4185-0487:tel:+5491141850487</t>
   </si>
   <si>
@@ -710,9 +680,6 @@
     <t>Tucumán 3099</t>
   </si>
   <si>
-    <t>Lanús Este (GBA)</t>
-  </si>
-  <si>
     <t>@lacarmelapadelclub:https://www.instagram.com/lacarmelapadelclub/</t>
   </si>
   <si>
@@ -725,9 +692,6 @@
     <t>Calle 15 e/141 y 142 n° 4153</t>
   </si>
   <si>
-    <t>Berazategui (GBA)</t>
-  </si>
-  <si>
     <t>+54 9 11 6377-2892:tel:+5491163772892</t>
   </si>
   <si>
@@ -740,9 +704,6 @@
     <t>Recarte 12</t>
   </si>
   <si>
-    <t>Monte Grande, Esteban Echevarría (GBA)</t>
-  </si>
-  <si>
     <t>+54 9 11 8107-5283:tel:+5491181075283</t>
   </si>
   <si>
@@ -764,9 +725,6 @@
     <t>Belgrano 1053</t>
   </si>
   <si>
-    <t>Banfield (GBA)</t>
-  </si>
-  <si>
     <t>+54 9 11 6249-6153:tel:+5491162496153</t>
   </si>
   <si>
@@ -782,9 +740,6 @@
     <t>Carlos Pellegrini 351</t>
   </si>
   <si>
-    <t>Burzaco (GBA)</t>
-  </si>
-  <si>
     <t>+54 9 11 6330-7826:tel:+5491163307826</t>
   </si>
   <si>
@@ -806,9 +761,6 @@
     <t>Ingeniero Huergo 747</t>
   </si>
   <si>
-    <t>Temperley (GBA)</t>
-  </si>
-  <si>
     <t>@super33predio:https://www.instagram.com/super33predio/</t>
   </si>
   <si>
@@ -818,9 +770,6 @@
     <t>Mariano Castex 7100</t>
   </si>
   <si>
-    <t>Canning</t>
-  </si>
-  <si>
     <t>+54 9 11 3334-3826</t>
   </si>
   <si>
@@ -851,9 +800,6 @@
     <t>Vicente López 710</t>
   </si>
   <si>
-    <t>Monte Grande</t>
-  </si>
-  <si>
     <t>+54 9 11 6637-0606</t>
   </si>
   <si>
@@ -935,9 +881,6 @@
     <t>Av. Rivadavia 640</t>
   </si>
   <si>
-    <t>Avellaneda</t>
-  </si>
-  <si>
     <t>+54 9 11 2733-1111</t>
   </si>
   <si>
@@ -1014,6 +957,51 @@
   </si>
   <si>
     <t>WhatsApp: +54 9 11 5842-6045</t>
+  </si>
+  <si>
+    <t>Canning (GBA Sur)</t>
+  </si>
+  <si>
+    <t>Monte Grande (GBA Sur)</t>
+  </si>
+  <si>
+    <t>Monte Grande, (GBA Sur)</t>
+  </si>
+  <si>
+    <t>Munro (GBA Norte)</t>
+  </si>
+  <si>
+    <t>Martínez (GBA Norte)</t>
+  </si>
+  <si>
+    <t>Lomas de Zamora (GBA Sur)</t>
+  </si>
+  <si>
+    <t>Quilmes (GBA Sur)</t>
+  </si>
+  <si>
+    <t>Ezeiza (GBA Sur)</t>
+  </si>
+  <si>
+    <t>Florencio Varela (GBA Sur)</t>
+  </si>
+  <si>
+    <t>Glew, Almirante Brown (GBA Este)</t>
+  </si>
+  <si>
+    <t>Lanús Este (GBA Este)</t>
+  </si>
+  <si>
+    <t>Berazategui (GBA Este)</t>
+  </si>
+  <si>
+    <t>Banfield (GBA Este)</t>
+  </si>
+  <si>
+    <t>Burzaco (GBA Este)</t>
+  </si>
+  <si>
+    <t>Temperley (GBA Este)</t>
   </si>
 </sst>
 </file>
@@ -1049,9 +1037,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,7 +1428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B607C4-D2F6-4524-B6ED-59DB31C4830B}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1481,22 +1470,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2">
@@ -1507,22 +1496,22 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3">
@@ -1533,22 +1522,22 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>25</v>
       </c>
       <c r="G4">
@@ -1559,22 +1548,22 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5">
@@ -1585,22 +1574,22 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>36</v>
       </c>
       <c r="G6">
@@ -1611,22 +1600,22 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
       <c r="G7">
@@ -1637,22 +1626,22 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
       <c r="G8">
@@ -1663,22 +1652,22 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>49</v>
       </c>
       <c r="G9">
@@ -1689,22 +1678,22 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>54</v>
       </c>
       <c r="G10">
@@ -1715,22 +1704,22 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="G11">
@@ -1741,22 +1730,22 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>25</v>
       </c>
       <c r="G12">
@@ -1767,22 +1756,22 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>69</v>
       </c>
       <c r="G13">
@@ -1793,22 +1782,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>25</v>
       </c>
       <c r="G14">
@@ -1819,22 +1808,22 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>25</v>
       </c>
       <c r="G15">
@@ -1845,22 +1834,22 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>25</v>
       </c>
       <c r="G16">
@@ -1871,22 +1860,22 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="E17" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>25</v>
       </c>
       <c r="G17">
@@ -1897,22 +1886,22 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>25</v>
       </c>
       <c r="G18">
@@ -1923,23 +1912,23 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="F19" t="s">
         <v>94</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G19">
         <v>-34.475584400000002</v>
@@ -1949,23 +1938,23 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="F20" t="s">
         <v>99</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="G20">
         <v>-34.473464700000001</v>
@@ -1975,22 +1964,22 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
         <v>25</v>
       </c>
       <c r="G21">
@@ -2001,22 +1990,22 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
         <v>25</v>
       </c>
       <c r="G22">
@@ -2027,22 +2016,22 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
         <v>25</v>
       </c>
       <c r="G23">
@@ -2053,22 +2042,22 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
         <v>25</v>
       </c>
       <c r="G24">
@@ -2079,22 +2068,22 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
         <v>25</v>
       </c>
       <c r="G25">
@@ -2105,22 +2094,22 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
         <v>25</v>
       </c>
       <c r="G26">
@@ -2131,22 +2120,22 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
         <v>25</v>
       </c>
       <c r="G27">
@@ -2157,22 +2146,22 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
         <v>25</v>
       </c>
       <c r="G28">
@@ -2183,22 +2172,22 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
         <v>25</v>
       </c>
       <c r="G29">
@@ -2209,22 +2198,22 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
         <v>25</v>
       </c>
       <c r="G30">
@@ -2235,22 +2224,22 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
         <v>25</v>
       </c>
       <c r="G31">
@@ -2261,22 +2250,22 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
         <v>25</v>
       </c>
       <c r="G32">
@@ -2287,22 +2276,22 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
         <v>25</v>
       </c>
       <c r="G33">
@@ -2313,22 +2302,22 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="A34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
         <v>25</v>
       </c>
       <c r="G34">
@@ -2339,22 +2328,22 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
         <v>25</v>
       </c>
       <c r="G35">
@@ -2365,22 +2354,22 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
         <v>25</v>
       </c>
       <c r="G36">
@@ -2391,22 +2380,22 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
         <v>25</v>
       </c>
       <c r="G37">
@@ -2417,22 +2406,22 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="D38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" t="s">
         <v>25</v>
       </c>
       <c r="G38">
@@ -2443,22 +2432,22 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" t="s">
         <v>25</v>
       </c>
       <c r="G39">
@@ -2469,23 +2458,23 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>175</v>
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>171</v>
       </c>
       <c r="G40">
         <v>-34.661005600000003</v>
@@ -2495,22 +2484,22 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" t="s">
         <v>25</v>
       </c>
       <c r="G41">
@@ -2521,22 +2510,22 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
         <v>25</v>
       </c>
       <c r="G42">
@@ -2547,22 +2536,22 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="A43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
         <v>25</v>
       </c>
       <c r="G43">
@@ -2573,22 +2562,22 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="A44" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
         <v>25</v>
       </c>
       <c r="G44">
@@ -2599,22 +2588,22 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="A45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" t="s">
         <v>25</v>
       </c>
       <c r="G45">
@@ -2625,23 +2614,23 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>197</v>
+      <c r="A46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" t="s">
+        <v>191</v>
       </c>
       <c r="G46">
         <v>-34.724921600000002</v>
@@ -2651,22 +2640,22 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" t="s">
+        <v>309</v>
+      </c>
+      <c r="D47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" t="s">
         <v>25</v>
       </c>
       <c r="G47">
@@ -2677,22 +2666,22 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="A48" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" t="s">
+        <v>311</v>
+      </c>
+      <c r="D48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" t="s">
         <v>25</v>
       </c>
       <c r="G48">
@@ -2703,22 +2692,22 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="A49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D49" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" t="s">
         <v>25</v>
       </c>
       <c r="G49">
@@ -2729,22 +2718,22 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="A50" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" t="s">
+        <v>312</v>
+      </c>
+      <c r="D50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" t="s">
         <v>25</v>
       </c>
       <c r="G50">
@@ -2755,23 +2744,23 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>222</v>
+      <c r="A51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" t="s">
+        <v>313</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>210</v>
+      </c>
+      <c r="F51" t="s">
+        <v>211</v>
       </c>
       <c r="G51">
         <v>-34.7035439</v>
@@ -2781,22 +2770,22 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="A52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" t="s">
+        <v>314</v>
+      </c>
+      <c r="D52" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" t="s">
+        <v>215</v>
+      </c>
+      <c r="F52" t="s">
         <v>25</v>
       </c>
       <c r="G52">
@@ -2807,22 +2796,22 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="A53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D53" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" t="s">
+        <v>219</v>
+      </c>
+      <c r="F53" t="s">
         <v>25</v>
       </c>
       <c r="G53">
@@ -2833,22 +2822,22 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="A54" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" t="s">
+        <v>305</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54" t="s">
         <v>25</v>
       </c>
       <c r="G54">
@@ -2859,23 +2848,23 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>241</v>
+      <c r="A55" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" t="s">
+        <v>315</v>
+      </c>
+      <c r="D55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" t="s">
+        <v>226</v>
+      </c>
+      <c r="F55" t="s">
+        <v>227</v>
       </c>
       <c r="G55">
         <v>-34.7459816</v>
@@ -2885,22 +2874,22 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="A56" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" t="s">
+        <v>316</v>
+      </c>
+      <c r="D56" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" t="s">
+        <v>231</v>
+      </c>
+      <c r="F56" t="s">
         <v>25</v>
       </c>
       <c r="G56">
@@ -2911,23 +2900,23 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>249</v>
+      <c r="A57" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" t="s">
+        <v>316</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>234</v>
       </c>
       <c r="G57">
         <v>-34.7926602</v>
@@ -2937,22 +2926,22 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="A58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" t="s">
+        <v>317</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>237</v>
+      </c>
+      <c r="F58" t="s">
         <v>25</v>
       </c>
       <c r="G58">
@@ -2963,23 +2952,23 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>259</v>
+      <c r="A59" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" t="s">
+        <v>242</v>
       </c>
       <c r="G59">
         <v>-34.858773499999998</v>
@@ -2989,23 +2978,23 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>264</v>
+      <c r="A60" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60" t="s">
+        <v>245</v>
+      </c>
+      <c r="E60" t="s">
+        <v>246</v>
+      </c>
+      <c r="F60" t="s">
+        <v>247</v>
       </c>
       <c r="G60">
         <v>-34.839236300000003</v>
@@ -3015,23 +3004,23 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>270</v>
+      <c r="A61" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" t="s">
+        <v>304</v>
+      </c>
+      <c r="D61" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" t="s">
+        <v>252</v>
       </c>
       <c r="G61">
         <v>-34.816462899999998</v>
@@ -3041,23 +3030,23 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>274</v>
+      <c r="A62" t="s">
+        <v>253</v>
+      </c>
+      <c r="B62" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" t="s">
+        <v>304</v>
+      </c>
+      <c r="D62" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" t="s">
+        <v>256</v>
       </c>
       <c r="G62">
         <v>-34.816462899999998</v>
@@ -3067,23 +3056,23 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="A63" t="s">
+        <v>257</v>
+      </c>
+      <c r="B63" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>279</v>
+      <c r="D63" t="s">
+        <v>259</v>
+      </c>
+      <c r="E63" t="s">
+        <v>260</v>
+      </c>
+      <c r="F63" t="s">
+        <v>261</v>
       </c>
       <c r="G63">
         <v>-34.624354699999998</v>
@@ -3093,23 +3082,23 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>283</v>
+      <c r="A64" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>264</v>
+      </c>
+      <c r="F64" t="s">
+        <v>265</v>
       </c>
       <c r="G64">
         <v>-34.633438300000002</v>
@@ -3119,23 +3108,23 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>289</v>
+      <c r="A65" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" t="s">
+        <v>268</v>
+      </c>
+      <c r="D65" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65" t="s">
+        <v>271</v>
       </c>
       <c r="G65">
         <v>-34.639246999999997</v>
@@ -3145,23 +3134,23 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>293</v>
+      <c r="A66" t="s">
+        <v>272</v>
+      </c>
+      <c r="B66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" t="s">
+        <v>273</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>274</v>
+      </c>
+      <c r="F66" t="s">
+        <v>275</v>
       </c>
       <c r="G66">
         <v>-34.653456800000001</v>
@@ -3171,23 +3160,23 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>298</v>
+      <c r="A67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" t="s">
+        <v>276</v>
+      </c>
+      <c r="C67" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" t="s">
+        <v>277</v>
+      </c>
+      <c r="E67" t="s">
+        <v>278</v>
+      </c>
+      <c r="F67" t="s">
+        <v>279</v>
       </c>
       <c r="G67">
         <v>-34.663516100000002</v>
@@ -3197,23 +3186,23 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>303</v>
+      <c r="A68" t="s">
+        <v>280</v>
+      </c>
+      <c r="B68" t="s">
+        <v>281</v>
+      </c>
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" t="s">
+        <v>282</v>
+      </c>
+      <c r="E68" t="s">
+        <v>283</v>
+      </c>
+      <c r="F68" t="s">
+        <v>284</v>
       </c>
       <c r="G68">
         <v>-34.637718900000003</v>
@@ -3223,23 +3212,23 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="A69" t="s">
+        <v>285</v>
+      </c>
+      <c r="B69" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>307</v>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>287</v>
+      </c>
+      <c r="F69" t="s">
+        <v>288</v>
       </c>
       <c r="G69">
         <v>-34.612282</v>
@@ -3249,22 +3238,22 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="A70" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70" t="s">
+        <v>290</v>
+      </c>
+      <c r="C70" t="s">
+        <v>304</v>
+      </c>
+      <c r="D70" t="s">
+        <v>291</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
         <v>25</v>
       </c>
       <c r="G70">
@@ -3275,23 +3264,23 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>316</v>
+      <c r="A71" t="s">
+        <v>292</v>
+      </c>
+      <c r="B71" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" t="s">
+        <v>294</v>
+      </c>
+      <c r="D71" t="s">
+        <v>295</v>
+      </c>
+      <c r="E71" t="s">
+        <v>296</v>
+      </c>
+      <c r="F71" t="s">
+        <v>297</v>
       </c>
       <c r="G71">
         <v>-34.634246300000001</v>
@@ -3301,23 +3290,23 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>321</v>
+      <c r="A72" t="s">
+        <v>298</v>
+      </c>
+      <c r="B72" t="s">
+        <v>299</v>
+      </c>
+      <c r="C72" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" t="s">
+        <v>300</v>
+      </c>
+      <c r="E72" t="s">
+        <v>301</v>
+      </c>
+      <c r="F72" t="s">
+        <v>302</v>
       </c>
       <c r="G72">
         <v>-34.653456800000001</v>
